--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnhTester\SeleniumTestNGParallel\src\test\resources\datatest\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -39,12 +39,16 @@
   </si>
   <si>
     <t>admin123@example.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,12 +66,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +90,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,9 +385,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875"/>
+    <col min="3" max="3" customWidth="true" width="25.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,6 +407,9 @@
       </c>
       <c r="B2">
         <v>123456</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -90,9 +90,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,7 +435,7 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" t="s" s="11">
         <v>5</v>
       </c>
     </row>

--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -90,9 +90,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,7 +450,7 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s" s="11">
+      <c r="C2" t="s" s="16">
         <v>5</v>
       </c>
     </row>

--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>EMAIL</t>
   </si>
@@ -90,9 +90,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,7 +453,7 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s" s="16">
+      <c r="C2" t="s" s="17">
         <v>5</v>
       </c>
     </row>

--- a/target/test-classes/datatest/Crm.xlsx
+++ b/target/test-classes/datatest/Crm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>EMAIL</t>
   </si>
@@ -38,10 +38,13 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>admin123@example.com</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>1234567</t>
   </si>
 </sst>
 </file>
@@ -66,12 +69,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill/>
@@ -90,55 +96,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +390,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,19 +415,22 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2" t="s" s="17">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
